--- a/biology/Neurosciences/Histoire_de_l'électrophysiologie/Histoire_de_l'électrophysiologie.xlsx
+++ b/biology/Neurosciences/Histoire_de_l'électrophysiologie/Histoire_de_l'électrophysiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27%C3%A9lectrophysiologie</t>
+          <t>Histoire_de_l'électrophysiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électrophysiologie est l'étude des phénomènes électriques chez les êtres vivants. L'histoire des connaissances en ce domaine remonte à l'Antiquité, mais ce n'est qu'au XVIIIe siècle, avec les travaux de Volta et Galvani que cette discipline scientifique commence à s'individualiser comme branche de la physiologie. Les applications de l'électrophysiologie à la médecine concernent d'une part certaines techniques utiles au diagnostic (électrodiagnostic), d'autre part des méthodes utilisées dans le traitement de certaines affections (électrothérapie).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27%C3%A9lectrophysiologie</t>
+          <t>Histoire_de_l'électrophysiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>La bioélectricité dans l'Antiquité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers phénomènes bioélectriques connus sont les décharges produites par l'organe électrique de certains poissons. Des bas-reliefs de l'Égypte antique représentent des poissons-chats, dont on sait qu'ils peuvent générer des impulsions électriques de plus de 350 V (bas-relief de la tombe de Ti à Saqqarah, datant de -2750 environ par exemple).
 En Méditerranée, cinq espèces au moins de poissons électriques sont connues, comme torpedo torpedo (torpille) dont il existe des représentations anciennes (mosaïque de Pompéi du Ier siècle). La torpille peut générer des impulsions de 45 V.
-Bien que leur mécanisme fût inconnu, les décharges générées par ces poissons étaient utilisées d'une manière que l'on pourrait décrire comme de l'« électrothérapie ». Scribonius Largus, sous le règne de l'empereur Claude (41-54), décrit ainsi le traitement contre la migraine[1] ou contre la goutte[2]  par l'utilisation d'une torpille noire.
+Bien que leur mécanisme fût inconnu, les décharges générées par ces poissons étaient utilisées d'une manière que l'on pourrait décrire comme de l'« électrothérapie ». Scribonius Largus, sous le règne de l'empereur Claude (41-54), décrit ainsi le traitement contre la migraine ou contre la goutte  par l'utilisation d'une torpille noire.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27%C3%A9lectrophysiologie</t>
+          <t>Histoire_de_l'électrophysiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Débuts de l'électrophysiologie et découverte de l'électricité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours du XVIIIe siècle on tenta de découvrir l'origine de ces décharges électriques en disséquant l'organe électrique de torpille. En 1776, John Walsh parvint à rendre visible la décharge électrique de l'organe électrique au moyen d'un flash lumineux. On peut dire qu'il s'agit de la "naissance" de l'électrophysiologie. À la fin du XVIIIe siècle Alessandro Volta et Luigi Galvani démontrent, avec des points de vue différents, que les phénomènes électriques ne sont pas restreints à l'organe électrique, mais de manière plus générale à l'activité des nerfs et des muscles.
 En 1791, Galvani montra que les muscles de grenouille se contractent quand ils sont mis en contact avec un arc de métal. Il interprétera ce phénomène, en analogie à l'organe électrique qui est un muscle modifié, comme la décharge dans le métal de l'énergie électrique contenue dans le muscle.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27%C3%A9lectrophysiologie</t>
+          <t>Histoire_de_l'électrophysiologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Description du potentiel de membrane et du potentiel d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1840, le physicien italien Carlo Matteucci avait montré que dans un muscle coupé transversalement, un courant électrique s'établit entre surface de la tranche de section (l'intérieur de la cellule) et surface extérieure non endommagée (milieu extracellulaire).
 Au milieu du XIXe siècle, Emil du Bois-Reymond mesura pour la première fois un courant d'action sur des muscles et des nerfs stimulés. En améliorant ses instruments de mesure, il observa en effet une diminution temporaire du courant précédemment découvert (alors appelé « courant de blessure », c'est-à-dire le potentiel de repos). Il nomma cette diminution de courant « fluctuation négative » (negative Schwankung). Cependant l'origine de cette « fluctuation négative » et de ce « courant de blessure » restait indéterminée.
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27%C3%A9lectrophysiologie</t>
+          <t>Histoire_de_l'électrophysiologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Chez les végétaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au siècle des lumières, l'abbé Bertholon (1741-1800) expérimente les réactions des plantes à divers types d'électricités, lançant au passage les prémices de l'électroculture.
 Un siècle après la mort de Bertholon, en Inde, Jagadish Chandra Bose, après avoir exploré de 1894 à 1900 le domaine des ondes électromagnétiques, et après avoir réalisé de nombreux travaux, pionniers, sur la radio notamment (où il a devancé Tesla), se consacre presque exclusivement à l'étude de certains aspects de la physiologie des végétaux, et en particulier à leurs réactions aux ondes électromagnétiques. Il invente pour cela des instruments d'observation très fins de ces effets, dont un crescographe. Cet appareil mesure en les amplifiant certaines réactions invisibles à l’œil des végétaux, réactions qu'il veut comprendre et faire comprendre, montrant que les plantes disposent d'une sorte de « mécanisme nerveux », très différent du système nerveux animal, mais permettant diverses formes de perception.
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Histoire_de_l%27%C3%A9lectrophysiologie</t>
+          <t>Histoire_de_l'électrophysiologie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1791: luigi Galvani décrit la bioélectricité des nerfs et muscle de grenouille
 années 1840:
